--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.20949702375128</v>
+        <v>7.115595</v>
       </c>
       <c r="H2">
-        <v>6.20949702375128</v>
+        <v>14.23119</v>
       </c>
       <c r="I2">
-        <v>0.009082412123887126</v>
+        <v>0.009306976103932288</v>
       </c>
       <c r="J2">
-        <v>0.009082412123887126</v>
+        <v>0.006258695489408662</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.188809412900946</v>
+        <v>0.320495</v>
       </c>
       <c r="N2">
-        <v>0.188809412900946</v>
+        <v>0.6409900000000001</v>
       </c>
       <c r="O2">
-        <v>0.001765855969444405</v>
+        <v>0.00294011664142989</v>
       </c>
       <c r="P2">
-        <v>0.001765855969444405</v>
+        <v>0.001962000597822644</v>
       </c>
       <c r="Q2">
-        <v>1.172411487464651</v>
+        <v>2.280512619525</v>
       </c>
       <c r="R2">
-        <v>1.172411487464651</v>
+        <v>9.1220504781</v>
       </c>
       <c r="S2">
-        <v>1.603823166592032E-05</v>
+        <v>2.736359532456164E-05</v>
       </c>
       <c r="T2">
-        <v>1.603823166592032E-05</v>
+        <v>1.227956429180968E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.20949702375128</v>
+        <v>7.115595</v>
       </c>
       <c r="H3">
-        <v>6.20949702375128</v>
+        <v>14.23119</v>
       </c>
       <c r="I3">
-        <v>0.009082412123887126</v>
+        <v>0.009306976103932288</v>
       </c>
       <c r="J3">
-        <v>0.009082412123887126</v>
+        <v>0.006258695489408662</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>47.4832128187357</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N3">
-        <v>47.4832128187357</v>
+        <v>0.034127</v>
       </c>
       <c r="O3">
-        <v>0.4440907554135159</v>
+        <v>0.0001043566572771055</v>
       </c>
       <c r="P3">
-        <v>0.4440907554135159</v>
+        <v>0.0001044590311890878</v>
       </c>
       <c r="Q3">
-        <v>294.846868676088</v>
+        <v>0.08094463685499999</v>
       </c>
       <c r="R3">
-        <v>294.846868676088</v>
+        <v>0.48566782113</v>
       </c>
       <c r="S3">
-        <v>0.004033415261073909</v>
+        <v>9.712449155642729E-07</v>
       </c>
       <c r="T3">
-        <v>0.004033415261073909</v>
+        <v>6.537772673311424E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.20949702375128</v>
+        <v>7.115595</v>
       </c>
       <c r="H4">
-        <v>6.20949702375128</v>
+        <v>14.23119</v>
       </c>
       <c r="I4">
-        <v>0.009082412123887126</v>
+        <v>0.009306976103932288</v>
       </c>
       <c r="J4">
-        <v>0.009082412123887126</v>
+        <v>0.006258695489408662</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.2502954250811</v>
+        <v>48.78764200000001</v>
       </c>
       <c r="N4">
-        <v>59.2502954250811</v>
+        <v>146.362926</v>
       </c>
       <c r="O4">
-        <v>0.5541433886170396</v>
+        <v>0.4475619218406647</v>
       </c>
       <c r="P4">
-        <v>0.5541433886170396</v>
+        <v>0.4480009802197716</v>
       </c>
       <c r="Q4">
-        <v>367.9145330984252</v>
+        <v>347.1531014769901</v>
       </c>
       <c r="R4">
-        <v>367.9145330984252</v>
+        <v>2082.91860886194</v>
       </c>
       <c r="S4">
-        <v>0.005032958631147296</v>
+        <v>0.004165448111601077</v>
       </c>
       <c r="T4">
-        <v>0.005032958631147296</v>
+        <v>0.002803901714152144</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>364.501407023958</v>
+        <v>7.115595</v>
       </c>
       <c r="H5">
-        <v>364.501407023958</v>
+        <v>14.23119</v>
       </c>
       <c r="I5">
-        <v>0.5331433424745153</v>
+        <v>0.009306976103932288</v>
       </c>
       <c r="J5">
-        <v>0.5331433424745153</v>
+        <v>0.006258695489408662</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.188809412900946</v>
+        <v>59.61647133333333</v>
       </c>
       <c r="N5">
-        <v>0.188809412900946</v>
+        <v>178.849414</v>
       </c>
       <c r="O5">
-        <v>0.001765855969444405</v>
+        <v>0.5469020717030258</v>
       </c>
       <c r="P5">
-        <v>0.001765855969444405</v>
+        <v>0.5474385827988417</v>
       </c>
       <c r="Q5">
-        <v>68.82129666176226</v>
+        <v>424.2066653371099</v>
       </c>
       <c r="R5">
-        <v>68.82129666176226</v>
+        <v>2545.23999202266</v>
       </c>
       <c r="S5">
-        <v>0.0009414543538781659</v>
+        <v>0.005090004512531125</v>
       </c>
       <c r="T5">
-        <v>0.0009414543538781659</v>
+        <v>0.003426251388891381</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>364.501407023958</v>
+        <v>7.115595</v>
       </c>
       <c r="H6">
-        <v>364.501407023958</v>
+        <v>14.23119</v>
       </c>
       <c r="I6">
-        <v>0.5331433424745153</v>
+        <v>0.009306976103932288</v>
       </c>
       <c r="J6">
-        <v>0.5331433424745153</v>
+        <v>0.006258695489408662</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>47.4832128187357</v>
+        <v>0.271596</v>
       </c>
       <c r="N6">
-        <v>47.4832128187357</v>
+        <v>0.814788</v>
       </c>
       <c r="O6">
-        <v>0.4440907554135159</v>
+        <v>0.002491533157602434</v>
       </c>
       <c r="P6">
-        <v>0.4440907554135159</v>
+        <v>0.00249397735237479</v>
       </c>
       <c r="Q6">
-        <v>17307.6978824472</v>
+        <v>1.93256713962</v>
       </c>
       <c r="R6">
-        <v>17307.6978824472</v>
+        <v>11.59540283772</v>
       </c>
       <c r="S6">
-        <v>0.2367640297031944</v>
+        <v>2.318863955996082E-05</v>
       </c>
       <c r="T6">
-        <v>0.2367640297031944</v>
+        <v>1.560904480599545E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>364.501407023958</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H7">
-        <v>364.501407023958</v>
+        <v>1176.01651</v>
       </c>
       <c r="I7">
-        <v>0.5331433424745153</v>
+        <v>0.5127309595519816</v>
       </c>
       <c r="J7">
-        <v>0.5331433424745153</v>
+        <v>0.5171970317736687</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.2502954250811</v>
+        <v>0.320495</v>
       </c>
       <c r="N7">
-        <v>59.2502954250811</v>
+        <v>0.6409900000000001</v>
       </c>
       <c r="O7">
-        <v>0.5541433886170396</v>
+        <v>0.00294011664142989</v>
       </c>
       <c r="P7">
-        <v>0.5541433886170396</v>
+        <v>0.001962000597822644</v>
       </c>
       <c r="Q7">
-        <v>21596.81604902724</v>
+        <v>125.6358037908167</v>
       </c>
       <c r="R7">
-        <v>21596.81604902724</v>
+        <v>753.8148227449</v>
       </c>
       <c r="S7">
-        <v>0.2954378584174428</v>
+        <v>0.001507488826755097</v>
       </c>
       <c r="T7">
-        <v>0.2954378584174428</v>
+        <v>0.001014740885532035</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>184.407887667234</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H8">
-        <v>184.407887667234</v>
+        <v>1176.01651</v>
       </c>
       <c r="I8">
-        <v>0.2697269083603619</v>
+        <v>0.5127309595519816</v>
       </c>
       <c r="J8">
-        <v>0.2697269083603619</v>
+        <v>0.5171970317736687</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.188809412900946</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N8">
-        <v>0.188809412900946</v>
+        <v>0.034127</v>
       </c>
       <c r="O8">
-        <v>0.001765855969444405</v>
+        <v>0.0001043566572771055</v>
       </c>
       <c r="P8">
-        <v>0.001765855969444405</v>
+        <v>0.0001044590311890878</v>
       </c>
       <c r="Q8">
-        <v>34.81794500475405</v>
+        <v>4.459323937418889</v>
       </c>
       <c r="R8">
-        <v>34.81794500475405</v>
+        <v>40.13391543677</v>
       </c>
       <c r="S8">
-        <v>0.0004762988712479292</v>
+        <v>5.35068890213276E-05</v>
       </c>
       <c r="T8">
-        <v>0.0004762988712479292</v>
+        <v>5.402590087294928E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,57 +971,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>184.407887667234</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H9">
-        <v>184.407887667234</v>
+        <v>1176.01651</v>
       </c>
       <c r="I9">
-        <v>0.2697269083603619</v>
+        <v>0.5127309595519816</v>
       </c>
       <c r="J9">
-        <v>0.2697269083603619</v>
+        <v>0.5171970317736687</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>47.4832128187357</v>
+        <v>48.78764200000001</v>
       </c>
       <c r="N9">
-        <v>47.4832128187357</v>
+        <v>146.362926</v>
       </c>
       <c r="O9">
-        <v>0.4440907554135159</v>
+        <v>0.4475619218406647</v>
       </c>
       <c r="P9">
-        <v>0.4440907554135159</v>
+        <v>0.4480009802197716</v>
       </c>
       <c r="Q9">
-        <v>8756.278975556779</v>
+        <v>19125.02415865647</v>
       </c>
       <c r="R9">
-        <v>8756.278975556779</v>
+        <v>172125.2174279083</v>
       </c>
       <c r="S9">
-        <v>0.1197832264891053</v>
+        <v>0.229478853644293</v>
       </c>
       <c r="T9">
-        <v>0.1197832264891053</v>
+        <v>0.23170477720136</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>184.407887667234</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H10">
-        <v>184.407887667234</v>
+        <v>1176.01651</v>
       </c>
       <c r="I10">
-        <v>0.2697269083603619</v>
+        <v>0.5127309595519816</v>
       </c>
       <c r="J10">
-        <v>0.2697269083603619</v>
+        <v>0.5171970317736687</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.2502954250811</v>
+        <v>59.61647133333333</v>
       </c>
       <c r="N10">
-        <v>59.2502954250811</v>
+        <v>178.849414</v>
       </c>
       <c r="O10">
-        <v>0.5541433886170396</v>
+        <v>0.5469020717030258</v>
       </c>
       <c r="P10">
-        <v>0.5541433886170396</v>
+        <v>0.5474385827988417</v>
       </c>
       <c r="Q10">
-        <v>10926.22182299878</v>
+        <v>23369.98485198057</v>
       </c>
       <c r="R10">
-        <v>10926.22182299878</v>
+        <v>210329.8636678251</v>
       </c>
       <c r="S10">
-        <v>0.1494673830000086</v>
+        <v>0.280413624005259</v>
       </c>
       <c r="T10">
-        <v>0.1494673830000086</v>
+        <v>0.2831336101019447</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>110.418155078607</v>
+        <v>392.0055033333333</v>
       </c>
       <c r="H11">
-        <v>110.418155078607</v>
+        <v>1176.01651</v>
       </c>
       <c r="I11">
-        <v>0.1615047380725435</v>
+        <v>0.5127309595519816</v>
       </c>
       <c r="J11">
-        <v>0.1615047380725435</v>
+        <v>0.5171970317736687</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.188809412900946</v>
+        <v>0.271596</v>
       </c>
       <c r="N11">
-        <v>0.188809412900946</v>
+        <v>0.814788</v>
       </c>
       <c r="O11">
-        <v>0.001765855969444405</v>
+        <v>0.002491533157602434</v>
       </c>
       <c r="P11">
-        <v>0.001765855969444405</v>
+        <v>0.00249397735237479</v>
       </c>
       <c r="Q11">
-        <v>20.84798703399739</v>
+        <v>106.46712668332</v>
       </c>
       <c r="R11">
-        <v>20.84798703399739</v>
+        <v>958.2041401498799</v>
       </c>
       <c r="S11">
-        <v>0.0002851941058189561</v>
+        <v>0.001277486186653075</v>
       </c>
       <c r="T11">
-        <v>0.0002851941058189561</v>
+        <v>0.001289877683958994</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>110.418155078607</v>
+        <v>225.9980216666667</v>
       </c>
       <c r="H12">
-        <v>110.418155078607</v>
+        <v>677.9940650000001</v>
       </c>
       <c r="I12">
-        <v>0.1615047380725435</v>
+        <v>0.2955983564533449</v>
       </c>
       <c r="J12">
-        <v>0.1615047380725435</v>
+        <v>0.2981731251189355</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.4832128187357</v>
+        <v>0.320495</v>
       </c>
       <c r="N12">
-        <v>47.4832128187357</v>
+        <v>0.6409900000000001</v>
       </c>
       <c r="O12">
-        <v>0.4440907554135159</v>
+        <v>0.00294011664142989</v>
       </c>
       <c r="P12">
-        <v>0.4440907554135159</v>
+        <v>0.001962000597822644</v>
       </c>
       <c r="Q12">
-        <v>5243.008756649659</v>
+        <v>72.43123595405835</v>
       </c>
       <c r="R12">
-        <v>5243.008756649659</v>
+        <v>434.5874157243501</v>
       </c>
       <c r="S12">
-        <v>0.07172276113349789</v>
+        <v>0.0008690936469878036</v>
       </c>
       <c r="T12">
-        <v>0.07172276113349789</v>
+        <v>0.0005850158497379976</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>110.418155078607</v>
+        <v>225.9980216666667</v>
       </c>
       <c r="H13">
-        <v>110.418155078607</v>
+        <v>677.9940650000001</v>
       </c>
       <c r="I13">
-        <v>0.1615047380725435</v>
+        <v>0.2955983564533449</v>
       </c>
       <c r="J13">
-        <v>0.1615047380725435</v>
+        <v>0.2981731251189355</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>59.2502954250811</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N13">
-        <v>59.2502954250811</v>
+        <v>0.034127</v>
       </c>
       <c r="O13">
-        <v>0.5541433886170396</v>
+        <v>0.0001043566572771055</v>
       </c>
       <c r="P13">
-        <v>0.5541433886170396</v>
+        <v>0.0001044590311890878</v>
       </c>
       <c r="Q13">
-        <v>6542.308308699884</v>
+        <v>2.570878161806111</v>
       </c>
       <c r="R13">
-        <v>6542.308308699884</v>
+        <v>23.137903456255</v>
       </c>
       <c r="S13">
-        <v>0.08949678283322668</v>
+        <v>3.084765637607739E-05</v>
       </c>
       <c r="T13">
-        <v>0.08949678283322668</v>
+        <v>3.114687577654666E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.89305341704197</v>
+        <v>225.9980216666667</v>
       </c>
       <c r="H14">
-        <v>6.89305341704197</v>
+        <v>677.9940650000001</v>
       </c>
       <c r="I14">
-        <v>0.01008222593328861</v>
+        <v>0.2955983564533449</v>
       </c>
       <c r="J14">
-        <v>0.01008222593328861</v>
+        <v>0.2981731251189355</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.188809412900946</v>
+        <v>48.78764200000001</v>
       </c>
       <c r="N14">
-        <v>0.188809412900946</v>
+        <v>146.362926</v>
       </c>
       <c r="O14">
-        <v>0.001765855969444405</v>
+        <v>0.4475619218406647</v>
       </c>
       <c r="P14">
-        <v>0.001765855969444405</v>
+        <v>0.4480009802197716</v>
       </c>
       <c r="Q14">
-        <v>1.301473368766554</v>
+        <v>11025.91057378158</v>
       </c>
       <c r="R14">
-        <v>1.301473368766554</v>
+        <v>99233.19516403422</v>
       </c>
       <c r="S14">
-        <v>1.780375884958488E-05</v>
+        <v>0.1322985685072009</v>
       </c>
       <c r="T14">
-        <v>1.780375884958488E-05</v>
+        <v>0.1335818523284757</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,122 +1340,122 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.89305341704197</v>
+        <v>225.9980216666667</v>
       </c>
       <c r="H15">
-        <v>6.89305341704197</v>
+        <v>677.9940650000001</v>
       </c>
       <c r="I15">
-        <v>0.01008222593328861</v>
+        <v>0.2955983564533449</v>
       </c>
       <c r="J15">
-        <v>0.01008222593328861</v>
+        <v>0.2981731251189355</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>47.4832128187357</v>
+        <v>59.61647133333333</v>
       </c>
       <c r="N15">
-        <v>47.4832128187357</v>
+        <v>178.849414</v>
       </c>
       <c r="O15">
-        <v>0.4440907554135159</v>
+        <v>0.5469020717030258</v>
       </c>
       <c r="P15">
-        <v>0.4440907554135159</v>
+        <v>0.5474385827988417</v>
       </c>
       <c r="Q15">
-        <v>327.3043223723172</v>
+        <v>13473.20458008088</v>
       </c>
       <c r="R15">
-        <v>327.3043223723172</v>
+        <v>121258.8412207279</v>
       </c>
       <c r="S15">
-        <v>0.004477423330963878</v>
+        <v>0.1616633535363438</v>
       </c>
       <c r="T15">
-        <v>0.004477423330963878</v>
+        <v>0.1632314730438118</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.89305341704197</v>
+        <v>225.9980216666667</v>
       </c>
       <c r="H16">
-        <v>6.89305341704197</v>
+        <v>677.9940650000001</v>
       </c>
       <c r="I16">
-        <v>0.01008222593328861</v>
+        <v>0.2955983564533449</v>
       </c>
       <c r="J16">
-        <v>0.01008222593328861</v>
+        <v>0.2981731251189355</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>59.2502954250811</v>
+        <v>0.271596</v>
       </c>
       <c r="N16">
-        <v>59.2502954250811</v>
+        <v>0.814788</v>
       </c>
       <c r="O16">
-        <v>0.5541433886170396</v>
+        <v>0.002491533157602434</v>
       </c>
       <c r="P16">
-        <v>0.5541433886170396</v>
+        <v>0.00249397735237479</v>
       </c>
       <c r="Q16">
-        <v>408.4154513406015</v>
+        <v>61.38015869258</v>
       </c>
       <c r="R16">
-        <v>408.4154513406015</v>
+        <v>552.42142823322</v>
       </c>
       <c r="S16">
-        <v>0.005586998843475143</v>
+        <v>0.0007364931064362922</v>
       </c>
       <c r="T16">
-        <v>0.005586998843475143</v>
+        <v>0.0007436370211334396</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.2536885553074</v>
+        <v>119.4232813333333</v>
       </c>
       <c r="H17">
-        <v>11.2536885553074</v>
+        <v>358.269844</v>
       </c>
       <c r="I17">
-        <v>0.01646037303540348</v>
+        <v>0.1562019234684543</v>
       </c>
       <c r="J17">
-        <v>0.01646037303540348</v>
+        <v>0.1575624987533681</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.188809412900946</v>
+        <v>0.320495</v>
       </c>
       <c r="N17">
-        <v>0.188809412900946</v>
+        <v>0.6409900000000001</v>
       </c>
       <c r="O17">
-        <v>0.001765855969444405</v>
+        <v>0.00294011664142989</v>
       </c>
       <c r="P17">
-        <v>0.001765855969444405</v>
+        <v>0.001962000597822644</v>
       </c>
       <c r="Q17">
-        <v>2.124802329097685</v>
+        <v>38.27456455092667</v>
       </c>
       <c r="R17">
-        <v>2.124802329097685</v>
+        <v>229.64738730556</v>
       </c>
       <c r="S17">
-        <v>2.906664798384896E-05</v>
+        <v>0.0004592518746129605</v>
       </c>
       <c r="T17">
-        <v>2.906664798384896E-05</v>
+        <v>0.0003091377167485378</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,861 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.2536885553074</v>
+        <v>119.4232813333333</v>
       </c>
       <c r="H18">
-        <v>11.2536885553074</v>
+        <v>358.269844</v>
       </c>
       <c r="I18">
-        <v>0.01646037303540348</v>
+        <v>0.1562019234684543</v>
       </c>
       <c r="J18">
-        <v>0.01646037303540348</v>
+        <v>0.1575624987533681</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>47.4832128187357</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N18">
-        <v>47.4832128187357</v>
+        <v>0.034127</v>
       </c>
       <c r="O18">
-        <v>0.4440907554135159</v>
+        <v>0.0001043566572771055</v>
       </c>
       <c r="P18">
-        <v>0.4440907554135159</v>
+        <v>0.0001044590311890878</v>
       </c>
       <c r="Q18">
-        <v>534.3612886674316</v>
+        <v>1.358519440687555</v>
       </c>
       <c r="R18">
-        <v>534.3612886674316</v>
+        <v>12.226674966188</v>
       </c>
       <c r="S18">
-        <v>0.0073098994956806</v>
+        <v>1.630071059342215E-05</v>
       </c>
       <c r="T18">
-        <v>0.0073098994956806</v>
+        <v>1.645882597150868E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>119.4232813333333</v>
+      </c>
+      <c r="H19">
+        <v>358.269844</v>
+      </c>
+      <c r="I19">
+        <v>0.1562019234684543</v>
+      </c>
+      <c r="J19">
+        <v>0.1575624987533681</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>48.78764200000001</v>
+      </c>
+      <c r="N19">
+        <v>146.362926</v>
+      </c>
+      <c r="O19">
+        <v>0.4475619218406647</v>
+      </c>
+      <c r="P19">
+        <v>0.4480009802197716</v>
+      </c>
+      <c r="Q19">
+        <v>5826.38029615595</v>
+      </c>
+      <c r="R19">
+        <v>52437.42266540354</v>
+      </c>
+      <c r="S19">
+        <v>0.06991003306274983</v>
+      </c>
+      <c r="T19">
+        <v>0.07058815388738546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>119.4232813333333</v>
+      </c>
+      <c r="H20">
+        <v>358.269844</v>
+      </c>
+      <c r="I20">
+        <v>0.1562019234684543</v>
+      </c>
+      <c r="J20">
+        <v>0.1575624987533681</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>59.61647133333333</v>
+      </c>
+      <c r="N20">
+        <v>178.849414</v>
+      </c>
+      <c r="O20">
+        <v>0.5469020717030258</v>
+      </c>
+      <c r="P20">
+        <v>0.5474385827988417</v>
+      </c>
+      <c r="Q20">
+        <v>7119.594628141267</v>
+      </c>
+      <c r="R20">
+        <v>64076.35165327141</v>
+      </c>
+      <c r="S20">
+        <v>0.08542715554889514</v>
+      </c>
+      <c r="T20">
+        <v>0.0862557910197881</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>119.4232813333333</v>
+      </c>
+      <c r="H21">
+        <v>358.269844</v>
+      </c>
+      <c r="I21">
+        <v>0.1562019234684543</v>
+      </c>
+      <c r="J21">
+        <v>0.1575624987533681</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.271596</v>
+      </c>
+      <c r="N21">
+        <v>0.814788</v>
+      </c>
+      <c r="O21">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P21">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q21">
+        <v>32.434885517008</v>
+      </c>
+      <c r="R21">
+        <v>291.9139696530719</v>
+      </c>
+      <c r="S21">
+        <v>0.0003891822716029317</v>
+      </c>
+      <c r="T21">
+        <v>0.0003929573034744811</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7.311581666666666</v>
+      </c>
+      <c r="H22">
+        <v>21.934745</v>
+      </c>
+      <c r="I22">
+        <v>0.009563320545030469</v>
+      </c>
+      <c r="J22">
+        <v>0.009646620528067518</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.320495</v>
+      </c>
+      <c r="N22">
+        <v>0.6409900000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.00294011664142989</v>
+      </c>
+      <c r="P22">
+        <v>0.001962000597822644</v>
+      </c>
+      <c r="Q22">
+        <v>2.343325366258334</v>
+      </c>
+      <c r="R22">
+        <v>14.05995219755</v>
+      </c>
+      <c r="S22">
+        <v>2.811727788177244E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.892667524303666E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7.311581666666666</v>
+      </c>
+      <c r="H23">
+        <v>21.934745</v>
+      </c>
+      <c r="I23">
+        <v>0.009563320545030469</v>
+      </c>
+      <c r="J23">
+        <v>0.009646620528067518</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.034127</v>
+      </c>
+      <c r="O23">
+        <v>0.0001043566572771055</v>
+      </c>
+      <c r="P23">
+        <v>0.0001044590311890878</v>
+      </c>
+      <c r="Q23">
+        <v>0.0831741158461111</v>
+      </c>
+      <c r="R23">
+        <v>0.748567042615</v>
+      </c>
+      <c r="S23">
+        <v>9.979961645488469E-07</v>
+      </c>
+      <c r="T23">
+        <v>1.007676634610699E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7.311581666666666</v>
+      </c>
+      <c r="H24">
+        <v>21.934745</v>
+      </c>
+      <c r="I24">
+        <v>0.009563320545030469</v>
+      </c>
+      <c r="J24">
+        <v>0.009646620528067518</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>48.78764200000001</v>
+      </c>
+      <c r="N24">
+        <v>146.362926</v>
+      </c>
+      <c r="O24">
+        <v>0.4475619218406647</v>
+      </c>
+      <c r="P24">
+        <v>0.4480009802197716</v>
+      </c>
+      <c r="Q24">
+        <v>356.7148288070967</v>
+      </c>
+      <c r="R24">
+        <v>3210.43345926387</v>
+      </c>
+      <c r="S24">
+        <v>0.004280178122312149</v>
+      </c>
+      <c r="T24">
+        <v>0.004321695452382419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7.311581666666666</v>
+      </c>
+      <c r="H25">
+        <v>21.934745</v>
+      </c>
+      <c r="I25">
+        <v>0.009563320545030469</v>
+      </c>
+      <c r="J25">
+        <v>0.009646620528067518</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>59.61647133333333</v>
+      </c>
+      <c r="N25">
+        <v>178.849414</v>
+      </c>
+      <c r="O25">
+        <v>0.5469020717030258</v>
+      </c>
+      <c r="P25">
+        <v>0.5474385827988417</v>
+      </c>
+      <c r="Q25">
+        <v>435.8906988321588</v>
+      </c>
+      <c r="R25">
+        <v>3923.01628948943</v>
+      </c>
+      <c r="S25">
+        <v>0.005230199818437273</v>
+      </c>
+      <c r="T25">
+        <v>0.005280932270683497</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.311581666666666</v>
+      </c>
+      <c r="H26">
+        <v>21.934745</v>
+      </c>
+      <c r="I26">
+        <v>0.009563320545030469</v>
+      </c>
+      <c r="J26">
+        <v>0.009646620528067518</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.271596</v>
+      </c>
+      <c r="N26">
+        <v>0.814788</v>
+      </c>
+      <c r="O26">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P26">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q26">
+        <v>1.98579633434</v>
+      </c>
+      <c r="R26">
+        <v>17.87216700906</v>
+      </c>
+      <c r="S26">
+        <v>2.3827330234724E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.405845312395413E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>12.69026</v>
+      </c>
+      <c r="H27">
+        <v>25.38052</v>
+      </c>
+      <c r="I27">
+        <v>0.01659846387725661</v>
+      </c>
+      <c r="J27">
+        <v>0.01116202833655136</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.320495</v>
+      </c>
+      <c r="N27">
+        <v>0.6409900000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.00294011664142989</v>
+      </c>
+      <c r="P27">
+        <v>0.001962000597822644</v>
+      </c>
+      <c r="Q27">
+        <v>4.0671648787</v>
+      </c>
+      <c r="R27">
+        <v>16.2686595148</v>
+      </c>
+      <c r="S27">
+        <v>4.880141986769504E-05</v>
+      </c>
+      <c r="T27">
+        <v>2.189990626922705E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>12.69026</v>
+      </c>
+      <c r="H28">
+        <v>25.38052</v>
+      </c>
+      <c r="I28">
+        <v>0.01659846387725661</v>
+      </c>
+      <c r="J28">
+        <v>0.01116202833655136</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.034127</v>
+      </c>
+      <c r="O28">
+        <v>0.0001043566572771055</v>
+      </c>
+      <c r="P28">
+        <v>0.0001044590311890878</v>
+      </c>
+      <c r="Q28">
+        <v>0.1443601676733333</v>
+      </c>
+      <c r="R28">
+        <v>0.8661610060399998</v>
+      </c>
+      <c r="S28">
+        <v>1.732160206165284E-06</v>
+      </c>
+      <c r="T28">
+        <v>1.1659746661413E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>12.69026</v>
+      </c>
+      <c r="H29">
+        <v>25.38052</v>
+      </c>
+      <c r="I29">
+        <v>0.01659846387725661</v>
+      </c>
+      <c r="J29">
+        <v>0.01116202833655136</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>48.78764200000001</v>
+      </c>
+      <c r="N29">
+        <v>146.362926</v>
+      </c>
+      <c r="O29">
+        <v>0.4475619218406647</v>
+      </c>
+      <c r="P29">
+        <v>0.4480009802197716</v>
+      </c>
+      <c r="Q29">
+        <v>619.12786176692</v>
+      </c>
+      <c r="R29">
+        <v>3714.76717060152</v>
+      </c>
+      <c r="S29">
+        <v>0.007428840392507818</v>
+      </c>
+      <c r="T29">
+        <v>0.005000599636015875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>11.2536885553074</v>
-      </c>
-      <c r="H19">
-        <v>11.2536885553074</v>
-      </c>
-      <c r="I19">
-        <v>0.01646037303540348</v>
-      </c>
-      <c r="J19">
-        <v>0.01646037303540348</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>59.2502954250811</v>
-      </c>
-      <c r="N19">
-        <v>59.2502954250811</v>
-      </c>
-      <c r="O19">
-        <v>0.5541433886170396</v>
-      </c>
-      <c r="P19">
-        <v>0.5541433886170396</v>
-      </c>
-      <c r="Q19">
-        <v>666.7843715238176</v>
-      </c>
-      <c r="R19">
-        <v>666.7843715238176</v>
-      </c>
-      <c r="S19">
-        <v>0.00912140689173903</v>
-      </c>
-      <c r="T19">
-        <v>0.00912140689173903</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>12.69026</v>
+      </c>
+      <c r="H30">
+        <v>25.38052</v>
+      </c>
+      <c r="I30">
+        <v>0.01659846387725661</v>
+      </c>
+      <c r="J30">
+        <v>0.01116202833655136</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>59.61647133333333</v>
+      </c>
+      <c r="N30">
+        <v>178.849414</v>
+      </c>
+      <c r="O30">
+        <v>0.5469020717030258</v>
+      </c>
+      <c r="P30">
+        <v>0.5474385827988417</v>
+      </c>
+      <c r="Q30">
+        <v>756.5485215025466</v>
+      </c>
+      <c r="R30">
+        <v>4539.29112901528</v>
+      </c>
+      <c r="S30">
+        <v>0.009077734281559478</v>
+      </c>
+      <c r="T30">
+        <v>0.006110524973722188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>12.69026</v>
+      </c>
+      <c r="H31">
+        <v>25.38052</v>
+      </c>
+      <c r="I31">
+        <v>0.01659846387725661</v>
+      </c>
+      <c r="J31">
+        <v>0.01116202833655136</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.271596</v>
+      </c>
+      <c r="N31">
+        <v>0.814788</v>
+      </c>
+      <c r="O31">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P31">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q31">
+        <v>3.446623854959999</v>
+      </c>
+      <c r="R31">
+        <v>20.67974312975999</v>
+      </c>
+      <c r="S31">
+        <v>4.13556231154511E-05</v>
+      </c>
+      <c r="T31">
+        <v>2.783784587792473E-05</v>
       </c>
     </row>
   </sheetData>
